--- a/doc/接口文档/App数据接口_1.0.xlsx
+++ b/doc/接口文档/App数据接口_1.0.xlsx
@@ -409,22 +409,22 @@
     <t>PUT: /userInfo.do</t>
   </si>
   <si>
-    <t>地址（必填）</t>
-  </si>
-  <si>
-    <t>生日（必填）</t>
-  </si>
-  <si>
-    <t>用户头像（必填）</t>
-  </si>
-  <si>
-    <t>用户手机号（必填）</t>
-  </si>
-  <si>
-    <t>用户名称（必填）</t>
-  </si>
-  <si>
-    <t>用户性别（必填）</t>
+    <t>地址（非必填）</t>
+  </si>
+  <si>
+    <t>生日（非必填）</t>
+  </si>
+  <si>
+    <t>用户头像（非必填）</t>
+  </si>
+  <si>
+    <t>用户手机号（非必填）</t>
+  </si>
+  <si>
+    <t>用户名称（非必填）</t>
+  </si>
+  <si>
+    <t>用户性别（非必填）</t>
   </si>
   <si>
     <t>微信登录</t>
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B73" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
